--- a/aplicaciones/www/estaticos/datos/descarga/ya7-1-gini.xlsx
+++ b/aplicaciones/www/estaticos/datos/descarga/ya7-1-gini.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28110"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Documents/"/>
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -418,13 +418,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADA2738-F688-604C-B3D5-D94E2AC69DC8}">
   <dimension ref="A1:C431"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C431"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,7 +433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>99001</v>
       </c>
@@ -443,7 +441,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>99000</v>
       </c>
@@ -451,7 +449,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>97001</v>
       </c>
@@ -459,7 +457,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>97000</v>
       </c>
@@ -467,7 +465,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>95001</v>
       </c>
@@ -475,7 +473,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>95000</v>
       </c>
@@ -483,7 +481,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>94001</v>
       </c>
@@ -491,7 +489,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>94000</v>
       </c>
@@ -499,7 +497,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>91001</v>
       </c>
@@ -507,7 +505,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>91000</v>
       </c>
@@ -515,7 +513,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>88000</v>
       </c>
@@ -523,7 +521,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>86001</v>
       </c>
@@ -531,7 +529,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>86000</v>
       </c>
@@ -539,7 +537,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>85001</v>
       </c>
@@ -547,7 +545,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>85000</v>
       </c>
@@ -555,7 +553,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>81001</v>
       </c>
@@ -563,7 +561,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>81000</v>
       </c>
@@ -571,7 +569,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>76001</v>
       </c>
@@ -582,7 +580,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>76000</v>
       </c>
@@ -593,7 +591,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>73001</v>
       </c>
@@ -604,7 +602,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>73000</v>
       </c>
@@ -615,7 +613,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>70001</v>
       </c>
@@ -626,7 +624,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>70000</v>
       </c>
@@ -637,7 +635,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>68001</v>
       </c>
@@ -648,7 +646,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>68000</v>
       </c>
@@ -659,7 +657,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>66001</v>
       </c>
@@ -670,7 +668,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>66000</v>
       </c>
@@ -681,7 +679,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>63001</v>
       </c>
@@ -689,7 +687,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>63000</v>
       </c>
@@ -700,7 +698,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>54001</v>
       </c>
@@ -711,7 +709,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>54000</v>
       </c>
@@ -722,7 +720,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>52001</v>
       </c>
@@ -733,7 +731,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>52000</v>
       </c>
@@ -744,7 +742,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>50001</v>
       </c>
@@ -755,7 +753,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>50000</v>
       </c>
@@ -766,7 +764,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>47001</v>
       </c>
@@ -777,7 +775,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>47000</v>
       </c>
@@ -788,7 +786,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>44001</v>
       </c>
@@ -799,7 +797,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>44000</v>
       </c>
@@ -810,7 +808,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>41001</v>
       </c>
@@ -821,7 +819,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>41000</v>
       </c>
@@ -832,7 +830,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>27001</v>
       </c>
@@ -843,7 +841,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>27000</v>
       </c>
@@ -854,7 +852,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>25000</v>
       </c>
@@ -865,7 +863,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>23001</v>
       </c>
@@ -876,7 +874,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>23000</v>
       </c>
@@ -887,7 +885,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>20001</v>
       </c>
@@ -898,7 +896,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>20000</v>
       </c>
@@ -909,7 +907,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>19001</v>
       </c>
@@ -920,7 +918,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>19000</v>
       </c>
@@ -931,7 +929,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>18001</v>
       </c>
@@ -942,7 +940,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>18000</v>
       </c>
@@ -953,7 +951,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>17001</v>
       </c>
@@ -964,7 +962,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>17000</v>
       </c>
@@ -975,7 +973,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>15001</v>
       </c>
@@ -986,7 +984,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>15000</v>
       </c>
@@ -997,7 +995,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>13001</v>
       </c>
@@ -1008,7 +1006,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>13000</v>
       </c>
@@ -1019,7 +1017,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>11001</v>
       </c>
@@ -1030,7 +1028,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>8001</v>
       </c>
@@ -1041,7 +1039,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>8000</v>
       </c>
@@ -1052,7 +1050,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>5001</v>
       </c>
@@ -1063,7 +1061,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>5000</v>
       </c>
@@ -1074,7 +1072,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>1001</v>
       </c>
@@ -1085,7 +1083,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>1001</v>
       </c>
@@ -1096,7 +1094,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>5000</v>
       </c>
@@ -1107,7 +1105,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>5001</v>
       </c>
@@ -1118,7 +1116,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>8000</v>
       </c>
@@ -1129,7 +1127,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>8001</v>
       </c>
@@ -1140,7 +1138,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>11001</v>
       </c>
@@ -1151,7 +1149,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>13000</v>
       </c>
@@ -1162,7 +1160,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>13001</v>
       </c>
@@ -1173,7 +1171,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>15000</v>
       </c>
@@ -1184,7 +1182,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>15001</v>
       </c>
@@ -1195,7 +1193,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>17000</v>
       </c>
@@ -1206,7 +1204,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>17001</v>
       </c>
@@ -1217,7 +1215,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>18000</v>
       </c>
@@ -1228,7 +1226,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>18001</v>
       </c>
@@ -1239,7 +1237,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>19000</v>
       </c>
@@ -1250,7 +1248,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>19001</v>
       </c>
@@ -1261,7 +1259,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>20000</v>
       </c>
@@ -1272,7 +1270,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>20001</v>
       </c>
@@ -1283,7 +1281,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>23000</v>
       </c>
@@ -1294,7 +1292,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>23001</v>
       </c>
@@ -1305,7 +1303,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>25000</v>
       </c>
@@ -1316,7 +1314,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>27000</v>
       </c>
@@ -1327,7 +1325,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>27001</v>
       </c>
@@ -1338,7 +1336,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>41000</v>
       </c>
@@ -1349,7 +1347,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>41001</v>
       </c>
@@ -1360,7 +1358,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>44000</v>
       </c>
@@ -1371,7 +1369,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>44001</v>
       </c>
@@ -1382,7 +1380,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>47000</v>
       </c>
@@ -1393,7 +1391,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>47001</v>
       </c>
@@ -1404,7 +1402,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>50000</v>
       </c>
@@ -1415,7 +1413,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>50001</v>
       </c>
@@ -1426,7 +1424,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>52000</v>
       </c>
@@ -1437,7 +1435,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>52001</v>
       </c>
@@ -1448,7 +1446,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>54000</v>
       </c>
@@ -1459,7 +1457,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>54001</v>
       </c>
@@ -1470,7 +1468,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>63000</v>
       </c>
@@ -1481,7 +1479,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102">
         <v>63001</v>
       </c>
@@ -1489,7 +1487,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103">
         <v>66000</v>
       </c>
@@ -1500,7 +1498,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104">
         <v>66001</v>
       </c>
@@ -1511,7 +1509,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105">
         <v>68000</v>
       </c>
@@ -1522,7 +1520,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106">
         <v>68001</v>
       </c>
@@ -1533,7 +1531,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107">
         <v>70000</v>
       </c>
@@ -1544,7 +1542,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108">
         <v>70001</v>
       </c>
@@ -1555,7 +1553,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109">
         <v>73000</v>
       </c>
@@ -1566,7 +1564,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110">
         <v>73001</v>
       </c>
@@ -1577,7 +1575,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111">
         <v>76000</v>
       </c>
@@ -1588,7 +1586,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112">
         <v>76001</v>
       </c>
@@ -1599,7 +1597,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113">
         <v>81000</v>
       </c>
@@ -1607,7 +1605,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114">
         <v>81001</v>
       </c>
@@ -1615,7 +1613,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115">
         <v>85000</v>
       </c>
@@ -1623,7 +1621,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116">
         <v>85001</v>
       </c>
@@ -1631,7 +1629,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117">
         <v>86000</v>
       </c>
@@ -1639,7 +1637,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118">
         <v>86001</v>
       </c>
@@ -1647,7 +1645,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="A119">
         <v>88000</v>
       </c>
@@ -1655,7 +1653,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120">
         <v>91000</v>
       </c>
@@ -1663,7 +1661,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121">
         <v>91001</v>
       </c>
@@ -1671,7 +1669,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122">
         <v>94000</v>
       </c>
@@ -1679,7 +1677,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123">
         <v>94001</v>
       </c>
@@ -1687,7 +1685,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124">
         <v>95000</v>
       </c>
@@ -1695,7 +1693,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125">
         <v>95001</v>
       </c>
@@ -1703,7 +1701,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126">
         <v>97000</v>
       </c>
@@ -1711,7 +1709,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127">
         <v>97001</v>
       </c>
@@ -1719,7 +1717,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128">
         <v>99000</v>
       </c>
@@ -1727,7 +1725,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129">
         <v>99001</v>
       </c>
@@ -1735,7 +1733,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130">
         <v>99001</v>
       </c>
@@ -1743,7 +1741,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131">
         <v>99000</v>
       </c>
@@ -1751,7 +1749,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132">
         <v>97001</v>
       </c>
@@ -1759,7 +1757,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133">
         <v>97000</v>
       </c>
@@ -1767,7 +1765,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134">
         <v>95001</v>
       </c>
@@ -1775,7 +1773,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135">
         <v>95000</v>
       </c>
@@ -1783,7 +1781,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136">
         <v>94001</v>
       </c>
@@ -1791,7 +1789,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137">
         <v>94000</v>
       </c>
@@ -1799,7 +1797,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138">
         <v>91001</v>
       </c>
@@ -1807,7 +1805,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139">
         <v>91000</v>
       </c>
@@ -1815,7 +1813,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3">
       <c r="A140">
         <v>88000</v>
       </c>
@@ -1823,7 +1821,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141">
         <v>86001</v>
       </c>
@@ -1831,7 +1829,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3">
       <c r="A142">
         <v>86000</v>
       </c>
@@ -1839,7 +1837,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3">
       <c r="A143">
         <v>85001</v>
       </c>
@@ -1847,7 +1845,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3">
       <c r="A144">
         <v>85000</v>
       </c>
@@ -1855,7 +1853,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="A145">
         <v>81001</v>
       </c>
@@ -1863,7 +1861,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3">
       <c r="A146">
         <v>81000</v>
       </c>
@@ -1871,7 +1869,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="A147">
         <v>76001</v>
       </c>
@@ -1882,7 +1880,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3">
       <c r="A148">
         <v>76000</v>
       </c>
@@ -1893,7 +1891,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3">
       <c r="A149">
         <v>73001</v>
       </c>
@@ -1904,7 +1902,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3">
       <c r="A150">
         <v>73000</v>
       </c>
@@ -1915,7 +1913,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3">
       <c r="A151">
         <v>70001</v>
       </c>
@@ -1926,7 +1924,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3">
       <c r="A152">
         <v>70000</v>
       </c>
@@ -1937,7 +1935,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3">
       <c r="A153">
         <v>68001</v>
       </c>
@@ -1948,7 +1946,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3">
       <c r="A154">
         <v>68000</v>
       </c>
@@ -1959,7 +1957,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3">
       <c r="A155">
         <v>66001</v>
       </c>
@@ -1970,7 +1968,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3">
       <c r="A156">
         <v>66000</v>
       </c>
@@ -1981,7 +1979,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3">
       <c r="A157">
         <v>63001</v>
       </c>
@@ -1989,7 +1987,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3">
       <c r="A158">
         <v>63000</v>
       </c>
@@ -2000,7 +1998,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3">
       <c r="A159">
         <v>54001</v>
       </c>
@@ -2011,7 +2009,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3">
       <c r="A160">
         <v>54000</v>
       </c>
@@ -2022,7 +2020,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3">
       <c r="A161">
         <v>52001</v>
       </c>
@@ -2033,7 +2031,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3">
       <c r="A162">
         <v>52000</v>
       </c>
@@ -2044,7 +2042,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3">
       <c r="A163">
         <v>50001</v>
       </c>
@@ -2055,7 +2053,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3">
       <c r="A164">
         <v>50000</v>
       </c>
@@ -2066,7 +2064,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3">
       <c r="A165">
         <v>47001</v>
       </c>
@@ -2077,7 +2075,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3">
       <c r="A166">
         <v>47000</v>
       </c>
@@ -2088,7 +2086,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3">
       <c r="A167">
         <v>44001</v>
       </c>
@@ -2099,7 +2097,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3">
       <c r="A168">
         <v>44000</v>
       </c>
@@ -2110,7 +2108,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3">
       <c r="A169">
         <v>41001</v>
       </c>
@@ -2121,7 +2119,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3">
       <c r="A170">
         <v>41000</v>
       </c>
@@ -2132,7 +2130,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3">
       <c r="A171">
         <v>27001</v>
       </c>
@@ -2143,7 +2141,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3">
       <c r="A172">
         <v>27000</v>
       </c>
@@ -2154,7 +2152,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3">
       <c r="A173">
         <v>25000</v>
       </c>
@@ -2165,7 +2163,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3">
       <c r="A174">
         <v>23001</v>
       </c>
@@ -2176,7 +2174,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3">
       <c r="A175">
         <v>23000</v>
       </c>
@@ -2187,7 +2185,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3">
       <c r="A176">
         <v>20001</v>
       </c>
@@ -2198,7 +2196,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3">
       <c r="A177">
         <v>20000</v>
       </c>
@@ -2209,7 +2207,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3">
       <c r="A178">
         <v>19001</v>
       </c>
@@ -2220,7 +2218,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3">
       <c r="A179">
         <v>19000</v>
       </c>
@@ -2231,7 +2229,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3">
       <c r="A180">
         <v>18001</v>
       </c>
@@ -2242,7 +2240,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3">
       <c r="A181">
         <v>18000</v>
       </c>
@@ -2253,7 +2251,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3">
       <c r="A182">
         <v>17001</v>
       </c>
@@ -2264,7 +2262,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3">
       <c r="A183">
         <v>17000</v>
       </c>
@@ -2275,7 +2273,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3">
       <c r="A184">
         <v>15001</v>
       </c>
@@ -2286,7 +2284,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3">
       <c r="A185">
         <v>15000</v>
       </c>
@@ -2297,7 +2295,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3">
       <c r="A186">
         <v>13001</v>
       </c>
@@ -2308,7 +2306,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3">
       <c r="A187">
         <v>13000</v>
       </c>
@@ -2319,7 +2317,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3">
       <c r="A188">
         <v>11001</v>
       </c>
@@ -2330,7 +2328,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3">
       <c r="A189">
         <v>8001</v>
       </c>
@@ -2341,7 +2339,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3">
       <c r="A190">
         <v>8000</v>
       </c>
@@ -2352,7 +2350,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3">
       <c r="A191">
         <v>5001</v>
       </c>
@@ -2363,7 +2361,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3">
       <c r="A192">
         <v>5000</v>
       </c>
@@ -2374,7 +2372,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193">
         <v>1001</v>
       </c>
@@ -2385,7 +2383,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194">
         <v>1001</v>
       </c>
@@ -2396,7 +2394,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="A195">
         <v>5000</v>
       </c>
@@ -2407,7 +2405,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196">
         <v>5001</v>
       </c>
@@ -2418,7 +2416,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3">
       <c r="A197">
         <v>8000</v>
       </c>
@@ -2429,7 +2427,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3">
       <c r="A198">
         <v>8001</v>
       </c>
@@ -2440,7 +2438,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3">
       <c r="A199">
         <v>11001</v>
       </c>
@@ -2451,7 +2449,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3">
       <c r="A200">
         <v>13000</v>
       </c>
@@ -2462,7 +2460,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3">
       <c r="A201">
         <v>13001</v>
       </c>
@@ -2473,7 +2471,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3">
       <c r="A202">
         <v>15000</v>
       </c>
@@ -2484,7 +2482,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3">
       <c r="A203">
         <v>15001</v>
       </c>
@@ -2495,7 +2493,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3">
       <c r="A204">
         <v>17000</v>
       </c>
@@ -2506,7 +2504,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3">
       <c r="A205">
         <v>17001</v>
       </c>
@@ -2517,7 +2515,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3">
       <c r="A206">
         <v>18000</v>
       </c>
@@ -2528,7 +2526,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3">
       <c r="A207">
         <v>18001</v>
       </c>
@@ -2539,7 +2537,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3">
       <c r="A208">
         <v>19000</v>
       </c>
@@ -2550,7 +2548,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3">
       <c r="A209">
         <v>19001</v>
       </c>
@@ -2561,7 +2559,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3">
       <c r="A210">
         <v>20000</v>
       </c>
@@ -2572,7 +2570,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3">
       <c r="A211">
         <v>20001</v>
       </c>
@@ -2583,7 +2581,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3">
       <c r="A212">
         <v>23000</v>
       </c>
@@ -2594,7 +2592,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3">
       <c r="A213">
         <v>23001</v>
       </c>
@@ -2605,7 +2603,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3">
       <c r="A214">
         <v>25000</v>
       </c>
@@ -2616,7 +2614,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3">
       <c r="A215">
         <v>27000</v>
       </c>
@@ -2627,7 +2625,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3">
       <c r="A216">
         <v>27001</v>
       </c>
@@ -2638,7 +2636,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3">
       <c r="A217">
         <v>41000</v>
       </c>
@@ -2649,7 +2647,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3">
       <c r="A218">
         <v>41001</v>
       </c>
@@ -2660,7 +2658,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3">
       <c r="A219">
         <v>44000</v>
       </c>
@@ -2671,7 +2669,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3">
       <c r="A220">
         <v>44001</v>
       </c>
@@ -2682,7 +2680,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3">
       <c r="A221">
         <v>47000</v>
       </c>
@@ -2693,7 +2691,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3">
       <c r="A222">
         <v>47001</v>
       </c>
@@ -2704,7 +2702,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3">
       <c r="A223">
         <v>50000</v>
       </c>
@@ -2715,7 +2713,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3">
       <c r="A224">
         <v>50001</v>
       </c>
@@ -2726,7 +2724,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3">
       <c r="A225">
         <v>52000</v>
       </c>
@@ -2737,7 +2735,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3">
       <c r="A226">
         <v>52001</v>
       </c>
@@ -2748,7 +2746,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3">
       <c r="A227">
         <v>54000</v>
       </c>
@@ -2759,7 +2757,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3">
       <c r="A228">
         <v>54001</v>
       </c>
@@ -2770,7 +2768,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3">
       <c r="A229">
         <v>63000</v>
       </c>
@@ -2781,7 +2779,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3">
       <c r="A230">
         <v>63001</v>
       </c>
@@ -2792,7 +2790,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3">
       <c r="A231">
         <v>66000</v>
       </c>
@@ -2803,7 +2801,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3">
       <c r="A232">
         <v>66001</v>
       </c>
@@ -2814,7 +2812,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3">
       <c r="A233">
         <v>68000</v>
       </c>
@@ -2825,7 +2823,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3">
       <c r="A234">
         <v>68001</v>
       </c>
@@ -2836,7 +2834,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3">
       <c r="A235">
         <v>70000</v>
       </c>
@@ -2847,7 +2845,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3">
       <c r="A236">
         <v>70001</v>
       </c>
@@ -2858,7 +2856,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3">
       <c r="A237">
         <v>73000</v>
       </c>
@@ -2869,7 +2867,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3">
       <c r="A238">
         <v>73001</v>
       </c>
@@ -2880,7 +2878,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3">
       <c r="A239">
         <v>76000</v>
       </c>
@@ -2891,7 +2889,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3">
       <c r="A240">
         <v>76001</v>
       </c>
@@ -2902,7 +2900,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3">
       <c r="A241">
         <v>76001</v>
       </c>
@@ -2910,7 +2908,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3">
       <c r="A242">
         <v>76000</v>
       </c>
@@ -2921,7 +2919,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3">
       <c r="A243">
         <v>81000</v>
       </c>
@@ -2929,7 +2927,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3">
       <c r="A244">
         <v>81001</v>
       </c>
@@ -2937,7 +2935,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3">
       <c r="A245">
         <v>85000</v>
       </c>
@@ -2945,7 +2943,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3">
       <c r="A246">
         <v>85001</v>
       </c>
@@ -2953,7 +2951,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3">
       <c r="A247">
         <v>86000</v>
       </c>
@@ -2961,7 +2959,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3">
       <c r="A248">
         <v>86001</v>
       </c>
@@ -2969,7 +2967,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3">
       <c r="A249">
         <v>88000</v>
       </c>
@@ -2977,7 +2975,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3">
       <c r="A250">
         <v>91000</v>
       </c>
@@ -2985,7 +2983,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3">
       <c r="A251">
         <v>91001</v>
       </c>
@@ -2993,7 +2991,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3">
       <c r="A252">
         <v>73001</v>
       </c>
@@ -3001,7 +2999,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3">
       <c r="A253">
         <v>73000</v>
       </c>
@@ -3012,7 +3010,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3">
       <c r="A254">
         <v>70001</v>
       </c>
@@ -3020,7 +3018,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3">
       <c r="A255">
         <v>70000</v>
       </c>
@@ -3031,7 +3029,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3">
       <c r="A256">
         <v>68001</v>
       </c>
@@ -3039,7 +3037,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3">
       <c r="A257">
         <v>68000</v>
       </c>
@@ -3050,7 +3048,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3">
       <c r="A258">
         <v>66001</v>
       </c>
@@ -3058,7 +3056,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3">
       <c r="A259">
         <v>66000</v>
       </c>
@@ -3069,7 +3067,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3">
       <c r="A260">
         <v>63001</v>
       </c>
@@ -3077,7 +3075,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3">
       <c r="A261">
         <v>63000</v>
       </c>
@@ -3088,7 +3086,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3">
       <c r="A262">
         <v>54001</v>
       </c>
@@ -3096,7 +3094,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3">
       <c r="A263">
         <v>54000</v>
       </c>
@@ -3107,7 +3105,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3">
       <c r="A264">
         <v>52001</v>
       </c>
@@ -3115,7 +3113,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3">
       <c r="A265">
         <v>52000</v>
       </c>
@@ -3126,7 +3124,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3">
       <c r="A266">
         <v>50001</v>
       </c>
@@ -3134,7 +3132,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3">
       <c r="A267">
         <v>50000</v>
       </c>
@@ -3145,7 +3143,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3">
       <c r="A268">
         <v>47001</v>
       </c>
@@ -3153,7 +3151,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3">
       <c r="A269">
         <v>47000</v>
       </c>
@@ -3164,7 +3162,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3">
       <c r="A270">
         <v>44001</v>
       </c>
@@ -3172,7 +3170,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3">
       <c r="A271">
         <v>44000</v>
       </c>
@@ -3183,7 +3181,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3">
       <c r="A272">
         <v>41001</v>
       </c>
@@ -3191,7 +3189,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3">
       <c r="A273">
         <v>41000</v>
       </c>
@@ -3202,7 +3200,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3">
       <c r="A274">
         <v>27001</v>
       </c>
@@ -3210,7 +3208,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3">
       <c r="A275">
         <v>27000</v>
       </c>
@@ -3221,7 +3219,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3">
       <c r="A276">
         <v>25000</v>
       </c>
@@ -3232,7 +3230,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3">
       <c r="A277">
         <v>23001</v>
       </c>
@@ -3240,7 +3238,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3">
       <c r="A278">
         <v>23000</v>
       </c>
@@ -3251,7 +3249,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3">
       <c r="A279">
         <v>20001</v>
       </c>
@@ -3259,7 +3257,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3">
       <c r="A280">
         <v>20000</v>
       </c>
@@ -3270,7 +3268,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3">
       <c r="A281">
         <v>19001</v>
       </c>
@@ -3278,7 +3276,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3">
       <c r="A282">
         <v>19000</v>
       </c>
@@ -3289,7 +3287,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3">
       <c r="A283">
         <v>18001</v>
       </c>
@@ -3297,7 +3295,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3">
       <c r="A284">
         <v>18000</v>
       </c>
@@ -3308,7 +3306,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3">
       <c r="A285">
         <v>17001</v>
       </c>
@@ -3316,7 +3314,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3">
       <c r="A286">
         <v>17000</v>
       </c>
@@ -3327,7 +3325,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3">
       <c r="A287">
         <v>15001</v>
       </c>
@@ -3335,7 +3333,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3">
       <c r="A288">
         <v>15000</v>
       </c>
@@ -3346,7 +3344,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3">
       <c r="A289">
         <v>13001</v>
       </c>
@@ -3354,7 +3352,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3">
       <c r="A290">
         <v>13000</v>
       </c>
@@ -3365,7 +3363,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3">
       <c r="A291">
         <v>11001</v>
       </c>
@@ -3373,7 +3371,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3">
       <c r="A292">
         <v>8001</v>
       </c>
@@ -3381,7 +3379,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3">
       <c r="A293">
         <v>8000</v>
       </c>
@@ -3392,7 +3390,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3">
       <c r="A294">
         <v>5001</v>
       </c>
@@ -3400,7 +3398,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3">
       <c r="A295">
         <v>5000</v>
       </c>
@@ -3411,7 +3409,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3">
       <c r="A296">
         <v>1001</v>
       </c>
@@ -3422,7 +3420,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3">
       <c r="A297">
         <v>94000</v>
       </c>
@@ -3430,7 +3428,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3">
       <c r="A298">
         <v>94001</v>
       </c>
@@ -3438,7 +3436,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3">
       <c r="A299">
         <v>95000</v>
       </c>
@@ -3446,7 +3444,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3">
       <c r="A300">
         <v>95001</v>
       </c>
@@ -3454,7 +3452,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3">
       <c r="A301">
         <v>97000</v>
       </c>
@@ -3462,7 +3460,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3">
       <c r="A302">
         <v>97001</v>
       </c>
@@ -3470,7 +3468,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3">
       <c r="A303">
         <v>99000</v>
       </c>
@@ -3478,7 +3476,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3">
       <c r="A304">
         <v>99001</v>
       </c>
@@ -3486,7 +3484,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3">
       <c r="A305">
         <v>99001</v>
       </c>
@@ -3494,7 +3492,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3">
       <c r="A306">
         <v>99000</v>
       </c>
@@ -3502,7 +3500,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3">
       <c r="A307">
         <v>97001</v>
       </c>
@@ -3510,7 +3508,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3">
       <c r="A308">
         <v>97000</v>
       </c>
@@ -3518,7 +3516,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3">
       <c r="A309">
         <v>95001</v>
       </c>
@@ -3526,7 +3524,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3">
       <c r="A310">
         <v>95000</v>
       </c>
@@ -3534,7 +3532,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3">
       <c r="A311">
         <v>94001</v>
       </c>
@@ -3542,7 +3540,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3">
       <c r="A312">
         <v>94000</v>
       </c>
@@ -3550,7 +3548,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3">
       <c r="A313">
         <v>1001</v>
       </c>
@@ -3561,7 +3559,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3">
       <c r="A314">
         <v>5000</v>
       </c>
@@ -3572,7 +3570,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3">
       <c r="A315">
         <v>5001</v>
       </c>
@@ -3580,7 +3578,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3">
       <c r="A316">
         <v>8000</v>
       </c>
@@ -3591,7 +3589,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3">
       <c r="A317">
         <v>8001</v>
       </c>
@@ -3599,7 +3597,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3">
       <c r="A318">
         <v>11001</v>
       </c>
@@ -3607,7 +3605,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3">
       <c r="A319">
         <v>13000</v>
       </c>
@@ -3618,7 +3616,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3">
       <c r="A320">
         <v>13001</v>
       </c>
@@ -3626,7 +3624,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3">
       <c r="A321">
         <v>15000</v>
       </c>
@@ -3637,7 +3635,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3">
       <c r="A322">
         <v>15001</v>
       </c>
@@ -3645,7 +3643,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3">
       <c r="A323">
         <v>17000</v>
       </c>
@@ -3656,7 +3654,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3">
       <c r="A324">
         <v>17001</v>
       </c>
@@ -3664,7 +3662,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3">
       <c r="A325">
         <v>18000</v>
       </c>
@@ -3675,7 +3673,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3">
       <c r="A326">
         <v>18001</v>
       </c>
@@ -3683,7 +3681,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3">
       <c r="A327">
         <v>19000</v>
       </c>
@@ -3694,7 +3692,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3">
       <c r="A328">
         <v>19001</v>
       </c>
@@ -3702,7 +3700,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3">
       <c r="A329">
         <v>20000</v>
       </c>
@@ -3713,7 +3711,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3">
       <c r="A330">
         <v>20001</v>
       </c>
@@ -3721,7 +3719,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3">
       <c r="A331">
         <v>23000</v>
       </c>
@@ -3732,7 +3730,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3">
       <c r="A332">
         <v>23001</v>
       </c>
@@ -3740,7 +3738,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3">
       <c r="A333">
         <v>25000</v>
       </c>
@@ -3751,7 +3749,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3">
       <c r="A334">
         <v>27000</v>
       </c>
@@ -3762,7 +3760,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3">
       <c r="A335">
         <v>27001</v>
       </c>
@@ -3770,7 +3768,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3">
       <c r="A336">
         <v>41000</v>
       </c>
@@ -3781,7 +3779,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3">
       <c r="A337">
         <v>41001</v>
       </c>
@@ -3789,7 +3787,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3">
       <c r="A338">
         <v>44000</v>
       </c>
@@ -3800,7 +3798,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3">
       <c r="A339">
         <v>44001</v>
       </c>
@@ -3808,7 +3806,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3">
       <c r="A340">
         <v>47000</v>
       </c>
@@ -3819,7 +3817,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3">
       <c r="A341">
         <v>47001</v>
       </c>
@@ -3827,7 +3825,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3">
       <c r="A342">
         <v>50000</v>
       </c>
@@ -3838,7 +3836,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3">
       <c r="A343">
         <v>50001</v>
       </c>
@@ -3846,7 +3844,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3">
       <c r="A344">
         <v>52000</v>
       </c>
@@ -3857,7 +3855,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3">
       <c r="A345">
         <v>52001</v>
       </c>
@@ -3865,7 +3863,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3">
       <c r="A346">
         <v>54000</v>
       </c>
@@ -3876,7 +3874,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3">
       <c r="A347">
         <v>54001</v>
       </c>
@@ -3884,7 +3882,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3">
       <c r="A348">
         <v>63000</v>
       </c>
@@ -3895,7 +3893,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3">
       <c r="A349">
         <v>63001</v>
       </c>
@@ -3903,7 +3901,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3">
       <c r="A350">
         <v>66000</v>
       </c>
@@ -3914,7 +3912,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3">
       <c r="A351">
         <v>66001</v>
       </c>
@@ -3922,7 +3920,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3">
       <c r="A352">
         <v>68000</v>
       </c>
@@ -3933,7 +3931,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3">
       <c r="A353">
         <v>68001</v>
       </c>
@@ -3941,7 +3939,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3">
       <c r="A354">
         <v>70000</v>
       </c>
@@ -3952,7 +3950,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3">
       <c r="A355">
         <v>70001</v>
       </c>
@@ -3960,7 +3958,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3">
       <c r="A356">
         <v>73000</v>
       </c>
@@ -3971,7 +3969,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3">
       <c r="A357">
         <v>73001</v>
       </c>
@@ -3979,7 +3977,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3">
       <c r="A358">
         <v>91001</v>
       </c>
@@ -3987,7 +3985,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3">
       <c r="A359">
         <v>91000</v>
       </c>
@@ -3995,7 +3993,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3">
       <c r="A360">
         <v>88000</v>
       </c>
@@ -4003,7 +4001,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3">
       <c r="A361">
         <v>86001</v>
       </c>
@@ -4011,7 +4009,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3">
       <c r="A362">
         <v>86000</v>
       </c>
@@ -4019,7 +4017,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3">
       <c r="A363">
         <v>85001</v>
       </c>
@@ -4027,7 +4025,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3">
       <c r="A364">
         <v>85000</v>
       </c>
@@ -4035,7 +4033,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3">
       <c r="A365">
         <v>81001</v>
       </c>
@@ -4043,7 +4041,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3">
       <c r="A366">
         <v>81000</v>
       </c>
@@ -4051,7 +4049,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3">
       <c r="A367">
         <v>76000</v>
       </c>
@@ -4062,7 +4060,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3">
       <c r="A368">
         <v>76001</v>
       </c>
@@ -4070,7 +4068,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3">
       <c r="A369">
         <v>76001</v>
       </c>
@@ -4081,7 +4079,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3">
       <c r="A370">
         <v>76000</v>
       </c>
@@ -4092,7 +4090,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3">
       <c r="A371">
         <v>81000</v>
       </c>
@@ -4100,7 +4098,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3">
       <c r="A372">
         <v>81001</v>
       </c>
@@ -4108,7 +4106,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3">
       <c r="A373">
         <v>85000</v>
       </c>
@@ -4116,7 +4114,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3">
       <c r="A374">
         <v>85001</v>
       </c>
@@ -4124,7 +4122,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3">
       <c r="A375">
         <v>86000</v>
       </c>
@@ -4132,7 +4130,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3">
       <c r="A376">
         <v>86001</v>
       </c>
@@ -4140,7 +4138,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3">
       <c r="A377">
         <v>88000</v>
       </c>
@@ -4148,7 +4146,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3">
       <c r="A378">
         <v>91000</v>
       </c>
@@ -4156,7 +4154,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3">
       <c r="A379">
         <v>91001</v>
       </c>
@@ -4164,7 +4162,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3">
       <c r="A380">
         <v>73001</v>
       </c>
@@ -4175,7 +4173,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3">
       <c r="A381">
         <v>73000</v>
       </c>
@@ -4186,7 +4184,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3">
       <c r="A382">
         <v>70001</v>
       </c>
@@ -4194,7 +4192,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3">
       <c r="A383">
         <v>70000</v>
       </c>
@@ -4205,7 +4203,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3">
       <c r="A384">
         <v>68001</v>
       </c>
@@ -4216,7 +4214,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3">
       <c r="A385">
         <v>68000</v>
       </c>
@@ -4227,7 +4225,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3">
       <c r="A386">
         <v>66001</v>
       </c>
@@ -4238,7 +4236,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3">
       <c r="A387">
         <v>66000</v>
       </c>
@@ -4249,7 +4247,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3">
       <c r="A388">
         <v>63001</v>
       </c>
@@ -4257,7 +4255,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3">
       <c r="A389">
         <v>63000</v>
       </c>
@@ -4268,7 +4266,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3">
       <c r="A390">
         <v>54001</v>
       </c>
@@ -4279,7 +4277,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3">
       <c r="A391">
         <v>54000</v>
       </c>
@@ -4290,7 +4288,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3">
       <c r="A392">
         <v>52001</v>
       </c>
@@ -4301,7 +4299,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3">
       <c r="A393">
         <v>52000</v>
       </c>
@@ -4312,7 +4310,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3">
       <c r="A394">
         <v>50001</v>
       </c>
@@ -4323,7 +4321,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3">
       <c r="A395">
         <v>50000</v>
       </c>
@@ -4334,7 +4332,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3">
       <c r="A396">
         <v>47001</v>
       </c>
@@ -4342,7 +4340,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3">
       <c r="A397">
         <v>47000</v>
       </c>
@@ -4353,7 +4351,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3">
       <c r="A398">
         <v>44001</v>
       </c>
@@ -4361,7 +4359,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3">
       <c r="A399">
         <v>44000</v>
       </c>
@@ -4372,7 +4370,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3">
       <c r="A400">
         <v>41001</v>
       </c>
@@ -4380,7 +4378,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3">
       <c r="A401">
         <v>41000</v>
       </c>
@@ -4391,7 +4389,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3">
       <c r="A402">
         <v>27001</v>
       </c>
@@ -4399,7 +4397,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3">
       <c r="A403">
         <v>27000</v>
       </c>
@@ -4410,7 +4408,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3">
       <c r="A404">
         <v>25000</v>
       </c>
@@ -4421,7 +4419,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3">
       <c r="A405">
         <v>23001</v>
       </c>
@@ -4432,7 +4430,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3">
       <c r="A406">
         <v>23000</v>
       </c>
@@ -4443,7 +4441,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3">
       <c r="A407">
         <v>20001</v>
       </c>
@@ -4451,7 +4449,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3">
       <c r="A408">
         <v>20000</v>
       </c>
@@ -4462,7 +4460,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3">
       <c r="A409">
         <v>19001</v>
       </c>
@@ -4470,7 +4468,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3">
       <c r="A410">
         <v>19000</v>
       </c>
@@ -4481,7 +4479,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3">
       <c r="A411">
         <v>18001</v>
       </c>
@@ -4489,7 +4487,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3">
       <c r="A412">
         <v>18000</v>
       </c>
@@ -4500,7 +4498,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3">
       <c r="A413">
         <v>17001</v>
       </c>
@@ -4511,7 +4509,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3">
       <c r="A414">
         <v>17000</v>
       </c>
@@ -4522,7 +4520,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3">
       <c r="A415">
         <v>15001</v>
       </c>
@@ -4530,7 +4528,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3">
       <c r="A416">
         <v>15000</v>
       </c>
@@ -4541,7 +4539,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3">
       <c r="A417">
         <v>13001</v>
       </c>
@@ -4552,7 +4550,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3">
       <c r="A418">
         <v>13000</v>
       </c>
@@ -4563,7 +4561,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3">
       <c r="A419">
         <v>8001</v>
       </c>
@@ -4574,7 +4572,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3">
       <c r="A420">
         <v>8000</v>
       </c>
@@ -4585,7 +4583,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3">
       <c r="A421">
         <v>5001</v>
       </c>
@@ -4596,7 +4594,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3">
       <c r="A422">
         <v>5000</v>
       </c>
@@ -4607,7 +4605,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3">
       <c r="A423">
         <v>1001</v>
       </c>
@@ -4618,7 +4616,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3">
       <c r="A424">
         <v>94000</v>
       </c>
@@ -4626,7 +4624,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3">
       <c r="A425">
         <v>94001</v>
       </c>
@@ -4634,7 +4632,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3">
       <c r="A426">
         <v>95000</v>
       </c>
@@ -4642,7 +4640,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3">
       <c r="A427">
         <v>95001</v>
       </c>
@@ -4650,7 +4648,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3">
       <c r="A428">
         <v>97000</v>
       </c>
@@ -4658,7 +4656,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3">
       <c r="A429">
         <v>97001</v>
       </c>
@@ -4666,7 +4664,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3">
       <c r="A430">
         <v>99000</v>
       </c>
@@ -4674,7 +4672,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3">
       <c r="A431">
         <v>99001</v>
       </c>
